--- a/Privacy Impact Assessment-Processor.xlsx
+++ b/Privacy Impact Assessment-Processor.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="6960" tabRatio="939" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20490" windowHeight="6960" tabRatio="939" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Document History" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
     <definedName name="Suppliers">'[2]Answer Look Up'!$A$239:$A$253</definedName>
     <definedName name="Z_E9E99311_271B_4415_AC13_123F2E2F3123_.wvu.FilterData" localSheetId="4" hidden="1">'Personal Data Inventory'!$A$2:$AF$2</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <customWorkbookViews>
     <customWorkbookView name="Parnali Tarafder - Personal View" guid="{E9E99311-271B-4415-AC13-123F2E2F3123}" mergeInterval="0" personalView="1" maximized="1" xWindow="-8" yWindow="-8" windowWidth="1382" windowHeight="744" tabRatio="939" activeSheetId="8"/>
   </customWorkbookViews>
@@ -159,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="469">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="475">
   <si>
     <t>Version</t>
   </si>
@@ -1777,7 +1777,25 @@
     <t>Warranty and Vehicle</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>North America &amp; JAPAN</t>
+  </si>
+  <si>
+    <t>Claims</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>USA</t>
   </si>
 </sst>
 </file>
@@ -1940,7 +1958,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="16">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2029,6 +2047,12 @@
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2389,7 +2413,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2858,6 +2882,11 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2909,123 +2938,123 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3041,6 +3070,51 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3052,51 +3126,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9537,13 +9566,13 @@
   <sheetData>
     <row r="1" spans="2:7" s="2" customFormat="1" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
-      <c r="C1" s="165" t="s">
+      <c r="C1" s="168" t="s">
         <v>466</v>
       </c>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
     </row>
     <row r="2" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="162" t="s">
@@ -9650,13 +9679,13 @@
     </row>
     <row r="8" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="166" t="s">
+      <c r="B9" s="169" t="s">
         <v>457</v>
       </c>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="168"/>
+      <c r="C9" s="170"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="171"/>
     </row>
     <row r="10" spans="2:7" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="154" t="s">
@@ -9777,24 +9806,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="250" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="248"/>
-      <c r="C1" s="248"/>
-      <c r="D1" s="248"/>
-      <c r="E1" s="248"/>
-      <c r="F1" s="248"/>
-      <c r="G1" s="248"/>
-      <c r="H1" s="248"/>
-      <c r="I1" s="248"/>
-      <c r="J1" s="248"/>
-      <c r="K1" s="248"/>
-      <c r="L1" s="248"/>
-      <c r="M1" s="248"/>
-      <c r="N1" s="248"/>
-      <c r="O1" s="248"/>
-      <c r="P1" s="249"/>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+      <c r="I1" s="251"/>
+      <c r="J1" s="251"/>
+      <c r="K1" s="251"/>
+      <c r="L1" s="251"/>
+      <c r="M1" s="251"/>
+      <c r="N1" s="251"/>
+      <c r="O1" s="251"/>
+      <c r="P1" s="252"/>
     </row>
     <row r="2" spans="1:16" s="79" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="84" t="s">
@@ -10416,59 +10445,59 @@
       <c r="F2" s="101"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="169" t="s">
+      <c r="B3" s="172" t="s">
         <v>208</v>
       </c>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="171"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="173"/>
+      <c r="H3" s="174"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="177"/>
-      <c r="E4" s="177"/>
-      <c r="F4" s="177"/>
-      <c r="G4" s="177"/>
-      <c r="H4" s="173"/>
+      <c r="C4" s="180"/>
+      <c r="D4" s="180"/>
+      <c r="E4" s="180"/>
+      <c r="F4" s="180"/>
+      <c r="G4" s="180"/>
+      <c r="H4" s="176"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="172" t="s">
+      <c r="B5" s="175" t="s">
         <v>390</v>
       </c>
-      <c r="C5" s="173"/>
-      <c r="D5" s="174"/>
-      <c r="E5" s="175"/>
-      <c r="F5" s="175"/>
-      <c r="G5" s="175"/>
-      <c r="H5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="178"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="178"/>
+      <c r="H5" s="179"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="172" t="s">
+      <c r="B6" s="175" t="s">
         <v>391</v>
       </c>
-      <c r="C6" s="173"/>
-      <c r="D6" s="174"/>
-      <c r="E6" s="175"/>
-      <c r="F6" s="175"/>
-      <c r="G6" s="175"/>
-      <c r="H6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="178"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="178"/>
+      <c r="H6" s="179"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="172" t="s">
+      <c r="B7" s="175" t="s">
         <v>400</v>
       </c>
-      <c r="C7" s="173"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="175"/>
-      <c r="G7" s="175"/>
-      <c r="H7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="178"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="178"/>
+      <c r="H7" s="179"/>
     </row>
     <row r="8" spans="2:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
@@ -10615,46 +10644,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="178" t="s">
+      <c r="A1" s="181" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="179"/>
+      <c r="B1" s="182"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="184" t="s">
         <v>213</v>
       </c>
-      <c r="B2" s="181"/>
+      <c r="B2" s="184"/>
     </row>
     <row r="3" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="183" t="s">
         <v>327</v>
       </c>
-      <c r="B3" s="180"/>
+      <c r="B3" s="183"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="181" t="s">
+      <c r="A4" s="184" t="s">
         <v>214</v>
       </c>
-      <c r="B4" s="181"/>
+      <c r="B4" s="184"/>
     </row>
     <row r="5" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="180" t="s">
+      <c r="A5" s="183" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="180"/>
+      <c r="B5" s="183"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="181" t="s">
+      <c r="A6" s="184" t="s">
         <v>215</v>
       </c>
-      <c r="B6" s="181"/>
+      <c r="B6" s="184"/>
     </row>
     <row r="7" spans="1:2" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="180" t="s">
+      <c r="A7" s="183" t="s">
         <v>329</v>
       </c>
-      <c r="B7" s="180"/>
+      <c r="B7" s="183"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="62" t="s">
@@ -11037,7 +11066,7 @@
   <dimension ref="A1:AF154"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11052,16 +11081,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="23" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="182" t="s">
+      <c r="A1" s="187" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="183"/>
-      <c r="C1" s="183"/>
-      <c r="D1" s="183"/>
-      <c r="E1" s="183"/>
-      <c r="F1" s="183"/>
-      <c r="G1" s="183"/>
-      <c r="H1" s="183"/>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
+      <c r="D1" s="188"/>
+      <c r="E1" s="188"/>
+      <c r="F1" s="188"/>
+      <c r="G1" s="188"/>
+      <c r="H1" s="188"/>
     </row>
     <row r="2" spans="1:32" s="23" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="66" t="s">
@@ -11114,16 +11143,16 @@
       <c r="H3" s="98"/>
     </row>
     <row r="4" spans="1:32" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="184" t="s">
+      <c r="A4" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="185"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186"/>
+      <c r="B4" s="186"/>
+      <c r="C4" s="186"/>
+      <c r="D4" s="186"/>
+      <c r="E4" s="189"/>
       <c r="F4" s="104"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="185"/>
+      <c r="G4" s="185"/>
+      <c r="H4" s="186"/>
     </row>
     <row r="5" spans="1:32" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="21" t="s">
@@ -11339,16 +11368,16 @@
       <c r="H21" s="98"/>
     </row>
     <row r="22" spans="1:8" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="184" t="s">
+      <c r="A22" s="185" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="185"/>
-      <c r="C22" s="185"/>
-      <c r="D22" s="185"/>
-      <c r="E22" s="186"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="186"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="189"/>
       <c r="F22" s="104"/>
-      <c r="G22" s="184"/>
-      <c r="H22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="186"/>
     </row>
     <row r="23" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
@@ -11495,16 +11524,16 @@
       <c r="H34" s="98"/>
     </row>
     <row r="35" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="184" t="s">
+      <c r="A35" s="185" t="s">
         <v>45</v>
       </c>
-      <c r="B35" s="185"/>
-      <c r="C35" s="185"/>
-      <c r="D35" s="185"/>
-      <c r="E35" s="186"/>
+      <c r="B35" s="186"/>
+      <c r="C35" s="186"/>
+      <c r="D35" s="186"/>
+      <c r="E35" s="189"/>
       <c r="F35" s="104"/>
-      <c r="G35" s="184"/>
-      <c r="H35" s="185"/>
+      <c r="G35" s="185"/>
+      <c r="H35" s="186"/>
     </row>
     <row r="36" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
@@ -11651,16 +11680,16 @@
       <c r="H47" s="98"/>
     </row>
     <row r="48" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="184" t="s">
+      <c r="A48" s="185" t="s">
         <v>55</v>
       </c>
-      <c r="B48" s="185"/>
-      <c r="C48" s="185"/>
-      <c r="D48" s="185"/>
-      <c r="E48" s="186"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="189"/>
       <c r="F48" s="104"/>
-      <c r="G48" s="184"/>
-      <c r="H48" s="185"/>
+      <c r="G48" s="185"/>
+      <c r="H48" s="186"/>
     </row>
     <row r="49" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
@@ -11843,16 +11872,16 @@
       <c r="H63" s="98"/>
     </row>
     <row r="64" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="184" t="s">
+      <c r="A64" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="185"/>
-      <c r="C64" s="185"/>
-      <c r="D64" s="185"/>
-      <c r="E64" s="186"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="189"/>
       <c r="F64" s="104"/>
-      <c r="G64" s="184"/>
-      <c r="H64" s="185"/>
+      <c r="G64" s="185"/>
+      <c r="H64" s="186"/>
     </row>
     <row r="65" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
@@ -11999,16 +12028,16 @@
       <c r="H76" s="98"/>
     </row>
     <row r="77" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="184" t="s">
+      <c r="A77" s="185" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="185"/>
-      <c r="C77" s="185"/>
-      <c r="D77" s="185"/>
-      <c r="E77" s="186"/>
+      <c r="B77" s="186"/>
+      <c r="C77" s="186"/>
+      <c r="D77" s="186"/>
+      <c r="E77" s="189"/>
       <c r="F77" s="104"/>
-      <c r="G77" s="184"/>
-      <c r="H77" s="185"/>
+      <c r="G77" s="185"/>
+      <c r="H77" s="186"/>
     </row>
     <row r="78" spans="1:8" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
@@ -12167,16 +12196,16 @@
       <c r="H90" s="98"/>
     </row>
     <row r="91" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="184" t="s">
+      <c r="A91" s="185" t="s">
         <v>74</v>
       </c>
-      <c r="B91" s="185"/>
-      <c r="C91" s="185"/>
-      <c r="D91" s="185"/>
-      <c r="E91" s="186"/>
+      <c r="B91" s="186"/>
+      <c r="C91" s="186"/>
+      <c r="D91" s="186"/>
+      <c r="E91" s="189"/>
       <c r="F91" s="104"/>
-      <c r="G91" s="184"/>
-      <c r="H91" s="185"/>
+      <c r="G91" s="185"/>
+      <c r="H91" s="186"/>
     </row>
     <row r="92" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21" t="s">
@@ -12239,16 +12268,16 @@
       <c r="H96" s="98"/>
     </row>
     <row r="97" spans="1:8" s="23" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="184" t="s">
+      <c r="A97" s="185" t="s">
         <v>304</v>
       </c>
-      <c r="B97" s="185"/>
-      <c r="C97" s="185"/>
-      <c r="D97" s="185"/>
-      <c r="E97" s="186"/>
+      <c r="B97" s="186"/>
+      <c r="C97" s="186"/>
+      <c r="D97" s="186"/>
+      <c r="E97" s="189"/>
       <c r="F97" s="104"/>
-      <c r="G97" s="184"/>
-      <c r="H97" s="185"/>
+      <c r="G97" s="185"/>
+      <c r="H97" s="186"/>
     </row>
     <row r="98" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A98" s="21" t="s">
@@ -12287,16 +12316,16 @@
       <c r="H100" s="98"/>
     </row>
     <row r="101" spans="1:8" s="23" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="184" t="s">
+      <c r="A101" s="185" t="s">
         <v>337</v>
       </c>
-      <c r="B101" s="185"/>
-      <c r="C101" s="185"/>
-      <c r="D101" s="185"/>
-      <c r="E101" s="186"/>
+      <c r="B101" s="186"/>
+      <c r="C101" s="186"/>
+      <c r="D101" s="186"/>
+      <c r="E101" s="189"/>
       <c r="F101" s="104"/>
-      <c r="G101" s="184"/>
-      <c r="H101" s="185"/>
+      <c r="G101" s="185"/>
+      <c r="H101" s="186"/>
     </row>
     <row r="102" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="21" t="s">
@@ -12563,16 +12592,16 @@
       <c r="H123" s="98"/>
     </row>
     <row r="124" spans="1:8" s="23" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="184" t="s">
+      <c r="A124" s="185" t="s">
         <v>338</v>
       </c>
-      <c r="B124" s="185"/>
-      <c r="C124" s="185"/>
-      <c r="D124" s="185"/>
-      <c r="E124" s="186"/>
+      <c r="B124" s="186"/>
+      <c r="C124" s="186"/>
+      <c r="D124" s="186"/>
+      <c r="E124" s="189"/>
       <c r="F124" s="104"/>
-      <c r="G124" s="184"/>
-      <c r="H124" s="185"/>
+      <c r="G124" s="185"/>
+      <c r="H124" s="186"/>
     </row>
     <row r="125" spans="1:8" s="23" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A125" s="21" t="s">
@@ -12791,16 +12820,16 @@
       <c r="H142" s="98"/>
     </row>
     <row r="143" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="184" t="s">
+      <c r="A143" s="185" t="s">
         <v>339</v>
       </c>
-      <c r="B143" s="185"/>
-      <c r="C143" s="185"/>
-      <c r="D143" s="185"/>
-      <c r="E143" s="186"/>
+      <c r="B143" s="186"/>
+      <c r="C143" s="186"/>
+      <c r="D143" s="186"/>
+      <c r="E143" s="189"/>
       <c r="F143" s="104"/>
-      <c r="G143" s="184"/>
-      <c r="H143" s="185"/>
+      <c r="G143" s="185"/>
+      <c r="H143" s="186"/>
     </row>
     <row r="144" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A144" s="24" t="s">
@@ -12913,13 +12942,6 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="23">
-    <mergeCell ref="G124:H124"/>
-    <mergeCell ref="G143:H143"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G97:H97"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G22:H22"/>
@@ -12936,6 +12958,13 @@
     <mergeCell ref="A101:E101"/>
     <mergeCell ref="A124:E124"/>
     <mergeCell ref="G101:H101"/>
+    <mergeCell ref="G124:H124"/>
+    <mergeCell ref="G143:H143"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G97:H97"/>
   </mergeCells>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E118:E123 D49:E63 D23:D34 E47 D65:E76 D78:E90 E93:E96 D98:E100 E139:E142 D36:D47 E102 D92:D96 E129 D102:D123 D125:E128 E133:E135 E41:E45 D129:D142 C144:E150 D5:D21">
@@ -12966,9 +12995,9 @@
   </sheetPr>
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12984,15 +13013,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="218" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
-      <c r="G1" s="193"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="220"/>
     </row>
     <row r="2" spans="1:7" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="73" t="s">
@@ -13021,10 +13050,10 @@
       <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="222" t="s">
         <v>464</v>
       </c>
-      <c r="C3" s="195"/>
+      <c r="C3" s="223"/>
       <c r="D3" s="17" t="s">
         <v>467</v>
       </c>
@@ -13033,10 +13062,10 @@
       <c r="G3" s="99"/>
     </row>
     <row r="4" spans="1:7" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="196">
+      <c r="A4" s="213">
         <v>2</v>
       </c>
-      <c r="B4" s="188" t="s">
+      <c r="B4" s="206" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="119"/>
@@ -13046,21 +13075,21 @@
       <c r="G4" s="99"/>
     </row>
     <row r="5" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="197"/>
-      <c r="B5" s="188"/>
+      <c r="A5" s="214"/>
+      <c r="B5" s="206"/>
       <c r="C5" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="D5" s="24" t="s">
-        <v>113</v>
+      <c r="D5" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
       <c r="G5" s="99"/>
     </row>
     <row r="6" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="197"/>
-      <c r="B6" s="188"/>
+      <c r="A6" s="214"/>
+      <c r="B6" s="206"/>
       <c r="C6" s="24" t="s">
         <v>369</v>
       </c>
@@ -13070,8 +13099,8 @@
       <c r="G6" s="99"/>
     </row>
     <row r="7" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="198"/>
-      <c r="B7" s="188"/>
+      <c r="A7" s="215"/>
+      <c r="B7" s="206"/>
       <c r="C7" s="24" t="s">
         <v>368</v>
       </c>
@@ -13081,10 +13110,10 @@
       <c r="G7" s="99"/>
     </row>
     <row r="8" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="187">
+      <c r="A8" s="221">
         <v>3</v>
       </c>
-      <c r="B8" s="188" t="s">
+      <c r="B8" s="206" t="s">
         <v>114</v>
       </c>
       <c r="C8" s="29"/>
@@ -13094,8 +13123,8 @@
       <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="187"/>
-      <c r="B9" s="188"/>
+      <c r="A9" s="221"/>
+      <c r="B9" s="206"/>
       <c r="C9" s="30" t="s">
         <v>311</v>
       </c>
@@ -13105,8 +13134,8 @@
       <c r="G9" s="99"/>
     </row>
     <row r="10" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="187"/>
-      <c r="B10" s="188"/>
+      <c r="A10" s="221"/>
+      <c r="B10" s="206"/>
       <c r="C10" s="30" t="s">
         <v>312</v>
       </c>
@@ -13116,8 +13145,8 @@
       <c r="G10" s="99"/>
     </row>
     <row r="11" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="187"/>
-      <c r="B11" s="188"/>
+      <c r="A11" s="221"/>
+      <c r="B11" s="206"/>
       <c r="C11" s="30" t="s">
         <v>313</v>
       </c>
@@ -13127,19 +13156,21 @@
       <c r="G11" s="99"/>
     </row>
     <row r="12" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="187"/>
-      <c r="B12" s="188"/>
+      <c r="A12" s="221"/>
+      <c r="B12" s="206"/>
       <c r="C12" s="30" t="s">
         <v>314</v>
       </c>
-      <c r="D12" s="22"/>
+      <c r="D12" s="22" t="s">
+        <v>463</v>
+      </c>
       <c r="E12" s="27"/>
       <c r="F12" s="27"/>
       <c r="G12" s="99"/>
     </row>
     <row r="13" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="187"/>
-      <c r="B13" s="188"/>
+      <c r="A13" s="221"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="30" t="s">
         <v>317</v>
       </c>
@@ -13149,8 +13180,8 @@
       <c r="G13" s="99"/>
     </row>
     <row r="14" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="187"/>
-      <c r="B14" s="188"/>
+      <c r="A14" s="221"/>
+      <c r="B14" s="206"/>
       <c r="C14" s="30" t="s">
         <v>316</v>
       </c>
@@ -13160,21 +13191,19 @@
       <c r="G14" s="99"/>
     </row>
     <row r="15" spans="1:7" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="187"/>
-      <c r="B15" s="188"/>
+      <c r="A15" s="221"/>
+      <c r="B15" s="206"/>
       <c r="C15" s="30" t="s">
         <v>318</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>318</v>
-      </c>
+      <c r="D15" s="22"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
       <c r="G15" s="99"/>
     </row>
     <row r="16" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="187"/>
-      <c r="B16" s="188"/>
+      <c r="A16" s="221"/>
+      <c r="B16" s="206"/>
       <c r="C16" s="30" t="s">
         <v>315</v>
       </c>
@@ -13184,10 +13213,10 @@
       <c r="G16" s="99"/>
     </row>
     <row r="17" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="187">
+      <c r="A17" s="221">
         <v>4</v>
       </c>
-      <c r="B17" s="188" t="s">
+      <c r="B17" s="206" t="s">
         <v>115</v>
       </c>
       <c r="C17" s="30"/>
@@ -13197,32 +13226,32 @@
       <c r="G17" s="99"/>
     </row>
     <row r="18" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="187"/>
-      <c r="B18" s="188"/>
+      <c r="A18" s="221"/>
+      <c r="B18" s="206"/>
       <c r="C18" s="30" t="s">
         <v>321</v>
       </c>
-      <c r="D18" s="22"/>
+      <c r="D18" s="22" t="s">
+        <v>463</v>
+      </c>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
       <c r="G18" s="99"/>
     </row>
-    <row r="19" spans="1:7" s="75" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="187"/>
-      <c r="B19" s="188"/>
+    <row r="19" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="221"/>
+      <c r="B19" s="206"/>
       <c r="C19" s="30" t="s">
         <v>319</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>319</v>
-      </c>
+      <c r="D19" s="22"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="99"/>
     </row>
     <row r="20" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="187"/>
-      <c r="B20" s="188"/>
+      <c r="A20" s="221"/>
+      <c r="B20" s="206"/>
       <c r="C20" s="30" t="s">
         <v>320</v>
       </c>
@@ -13232,10 +13261,10 @@
       <c r="G20" s="99"/>
     </row>
     <row r="21" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="187">
+      <c r="A21" s="221">
         <v>5</v>
       </c>
-      <c r="B21" s="188" t="s">
+      <c r="B21" s="206" t="s">
         <v>436</v>
       </c>
       <c r="C21" s="24"/>
@@ -13245,32 +13274,34 @@
       <c r="G21" s="99"/>
     </row>
     <row r="22" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="187"/>
-      <c r="B22" s="188"/>
+      <c r="A22" s="221"/>
+      <c r="B22" s="206"/>
       <c r="C22" s="30" t="s">
         <v>432</v>
       </c>
-      <c r="D22" s="22"/>
+      <c r="D22" s="22" t="s">
+        <v>463</v>
+      </c>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
       <c r="G22" s="99"/>
     </row>
     <row r="23" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="187"/>
-      <c r="B23" s="188"/>
+      <c r="A23" s="221"/>
+      <c r="B23" s="206"/>
       <c r="C23" s="30" t="s">
         <v>433</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>433</v>
+      <c r="D23" s="22" t="s">
+        <v>463</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
       <c r="G23" s="99"/>
     </row>
     <row r="24" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="187"/>
-      <c r="B24" s="188"/>
+      <c r="A24" s="221"/>
+      <c r="B24" s="206"/>
       <c r="C24" s="30" t="s">
         <v>434</v>
       </c>
@@ -13280,8 +13311,8 @@
       <c r="G24" s="99"/>
     </row>
     <row r="25" spans="1:7" s="75" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="187"/>
-      <c r="B25" s="188"/>
+      <c r="A25" s="221"/>
+      <c r="B25" s="206"/>
       <c r="C25" s="30" t="s">
         <v>435</v>
       </c>
@@ -13291,26 +13322,26 @@
       <c r="G25" s="99"/>
     </row>
     <row r="26" spans="1:7" s="75" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="201" t="s">
+      <c r="A26" s="198" t="s">
         <v>275</v>
       </c>
-      <c r="B26" s="202"/>
-      <c r="C26" s="202"/>
-      <c r="D26" s="202"/>
-      <c r="E26" s="202"/>
-      <c r="F26" s="202"/>
-      <c r="G26" s="203"/>
+      <c r="B26" s="199"/>
+      <c r="C26" s="199"/>
+      <c r="D26" s="199"/>
+      <c r="E26" s="199"/>
+      <c r="F26" s="199"/>
+      <c r="G26" s="200"/>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="31">
         <v>6</v>
       </c>
-      <c r="B27" s="189" t="s">
+      <c r="B27" s="203" t="s">
         <v>276</v>
       </c>
-      <c r="C27" s="190"/>
+      <c r="C27" s="204"/>
       <c r="D27" s="27" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="E27" s="21" t="s">
         <v>370</v>
@@ -13319,10 +13350,10 @@
       <c r="G27" s="34"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" s="187">
+      <c r="A28" s="221">
         <v>7</v>
       </c>
-      <c r="B28" s="188" t="s">
+      <c r="B28" s="206" t="s">
         <v>116</v>
       </c>
       <c r="C28" s="24" t="s">
@@ -13334,8 +13365,8 @@
       <c r="G28" s="34"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="187"/>
-      <c r="B29" s="188"/>
+      <c r="A29" s="221"/>
+      <c r="B29" s="206"/>
       <c r="C29" s="24" t="s">
         <v>444</v>
       </c>
@@ -13345,8 +13376,8 @@
       <c r="G29" s="34"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" s="187"/>
-      <c r="B30" s="188"/>
+      <c r="A30" s="221"/>
+      <c r="B30" s="206"/>
       <c r="C30" s="24" t="s">
         <v>437</v>
       </c>
@@ -13356,21 +13387,19 @@
       <c r="G30" s="34"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" s="187"/>
-      <c r="B31" s="188"/>
+      <c r="A31" s="221"/>
+      <c r="B31" s="206"/>
       <c r="C31" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="D31" s="24" t="s">
-        <v>438</v>
-      </c>
+      <c r="D31" s="22"/>
       <c r="E31" s="21"/>
       <c r="F31" s="32"/>
       <c r="G31" s="34"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" s="187"/>
-      <c r="B32" s="188"/>
+      <c r="A32" s="221"/>
+      <c r="B32" s="206"/>
       <c r="C32" s="24" t="s">
         <v>439</v>
       </c>
@@ -13380,19 +13409,21 @@
       <c r="G32" s="34"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A33" s="187"/>
-      <c r="B33" s="188"/>
+      <c r="A33" s="221"/>
+      <c r="B33" s="206"/>
       <c r="C33" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="D33" s="22"/>
+      <c r="D33" s="22" t="s">
+        <v>463</v>
+      </c>
       <c r="E33" s="21"/>
       <c r="F33" s="32"/>
       <c r="G33" s="34"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A34" s="187"/>
-      <c r="B34" s="188"/>
+      <c r="A34" s="221"/>
+      <c r="B34" s="206"/>
       <c r="C34" s="24" t="s">
         <v>441</v>
       </c>
@@ -13402,8 +13433,8 @@
       <c r="G34" s="34"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A35" s="187"/>
-      <c r="B35" s="188"/>
+      <c r="A35" s="221"/>
+      <c r="B35" s="206"/>
       <c r="C35" s="24" t="s">
         <v>442</v>
       </c>
@@ -13413,8 +13444,8 @@
       <c r="G35" s="34"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" s="187"/>
-      <c r="B36" s="188"/>
+      <c r="A36" s="221"/>
+      <c r="B36" s="206"/>
       <c r="C36" s="130" t="s">
         <v>443</v>
       </c>
@@ -13427,94 +13458,104 @@
       <c r="A37" s="31">
         <v>8</v>
       </c>
-      <c r="B37" s="189" t="s">
+      <c r="B37" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="C37" s="190"/>
-      <c r="D37" s="22"/>
+      <c r="C37" s="204"/>
+      <c r="D37" s="165" t="s">
+        <v>473</v>
+      </c>
       <c r="E37" s="21"/>
       <c r="F37" s="32"/>
       <c r="G37" s="34"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="201" t="s">
+      <c r="A38" s="198" t="s">
         <v>161</v>
       </c>
-      <c r="B38" s="202"/>
-      <c r="C38" s="202"/>
-      <c r="D38" s="202"/>
-      <c r="E38" s="202"/>
-      <c r="F38" s="202"/>
-      <c r="G38" s="203"/>
+      <c r="B38" s="199"/>
+      <c r="C38" s="199"/>
+      <c r="D38" s="199"/>
+      <c r="E38" s="199"/>
+      <c r="F38" s="199"/>
+      <c r="G38" s="200"/>
       <c r="H38" s="40"/>
     </row>
     <row r="39" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="213">
+      <c r="A39" s="207">
         <v>9</v>
       </c>
-      <c r="B39" s="210" t="s">
+      <c r="B39" s="193" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="211"/>
-      <c r="D39" s="32"/>
+      <c r="C39" s="194"/>
+      <c r="D39" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E39" s="35"/>
       <c r="F39" s="35"/>
       <c r="G39" s="34"/>
       <c r="H39" s="40"/>
     </row>
     <row r="40" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="213"/>
-      <c r="B40" s="210" t="s">
+      <c r="A40" s="207"/>
+      <c r="B40" s="193" t="s">
         <v>184</v>
       </c>
-      <c r="C40" s="211"/>
-      <c r="D40" s="32"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E40" s="35"/>
       <c r="F40" s="35"/>
       <c r="G40" s="34"/>
       <c r="H40" s="40"/>
     </row>
     <row r="41" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="213"/>
-      <c r="B41" s="210" t="s">
+      <c r="A41" s="207"/>
+      <c r="B41" s="193" t="s">
         <v>185</v>
       </c>
-      <c r="C41" s="211"/>
-      <c r="D41" s="32"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E41" s="21"/>
       <c r="F41" s="34"/>
       <c r="G41" s="34"/>
       <c r="H41" s="40"/>
     </row>
     <row r="42" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="201" t="s">
+      <c r="A42" s="198" t="s">
         <v>186</v>
       </c>
-      <c r="B42" s="202"/>
-      <c r="C42" s="202"/>
-      <c r="D42" s="202"/>
-      <c r="E42" s="202"/>
-      <c r="F42" s="202"/>
-      <c r="G42" s="203"/>
+      <c r="B42" s="199"/>
+      <c r="C42" s="199"/>
+      <c r="D42" s="199"/>
+      <c r="E42" s="199"/>
+      <c r="F42" s="199"/>
+      <c r="G42" s="200"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A43" s="217">
+      <c r="A43" s="205">
         <v>10</v>
       </c>
-      <c r="B43" s="188" t="s">
+      <c r="B43" s="206" t="s">
         <v>453</v>
       </c>
       <c r="C43" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="D43" s="33"/>
+      <c r="D43" s="33" t="s">
+        <v>474</v>
+      </c>
       <c r="E43" s="34"/>
       <c r="F43" s="34"/>
       <c r="G43" s="34"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A44" s="217"/>
-      <c r="B44" s="188"/>
+      <c r="A44" s="205"/>
+      <c r="B44" s="206"/>
       <c r="C44" s="37" t="s">
         <v>144</v>
       </c>
@@ -13524,8 +13565,8 @@
       <c r="G44" s="34"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="217"/>
-      <c r="B45" s="188"/>
+      <c r="A45" s="205"/>
+      <c r="B45" s="206"/>
       <c r="C45" s="37" t="s">
         <v>145</v>
       </c>
@@ -13535,8 +13576,8 @@
       <c r="G45" s="34"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" s="217"/>
-      <c r="B46" s="188"/>
+      <c r="A46" s="205"/>
+      <c r="B46" s="206"/>
       <c r="C46" s="37" t="s">
         <v>146</v>
       </c>
@@ -13546,8 +13587,8 @@
       <c r="G46" s="34"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A47" s="217"/>
-      <c r="B47" s="188"/>
+      <c r="A47" s="205"/>
+      <c r="B47" s="206"/>
       <c r="C47" s="37" t="s">
         <v>147</v>
       </c>
@@ -13557,8 +13598,8 @@
       <c r="G47" s="34"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A48" s="217"/>
-      <c r="B48" s="188"/>
+      <c r="A48" s="205"/>
+      <c r="B48" s="206"/>
       <c r="C48" s="37" t="s">
         <v>148</v>
       </c>
@@ -13568,8 +13609,8 @@
       <c r="G48" s="34"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="217"/>
-      <c r="B49" s="188"/>
+      <c r="A49" s="205"/>
+      <c r="B49" s="206"/>
       <c r="C49" s="37" t="s">
         <v>149</v>
       </c>
@@ -13579,8 +13620,8 @@
       <c r="G49" s="34"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="217"/>
-      <c r="B50" s="188"/>
+      <c r="A50" s="205"/>
+      <c r="B50" s="206"/>
       <c r="C50" s="37" t="s">
         <v>150</v>
       </c>
@@ -13590,8 +13631,8 @@
       <c r="G50" s="34"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A51" s="217"/>
-      <c r="B51" s="188"/>
+      <c r="A51" s="205"/>
+      <c r="B51" s="206"/>
       <c r="C51" s="37" t="s">
         <v>151</v>
       </c>
@@ -13601,8 +13642,8 @@
       <c r="G51" s="34"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A52" s="217"/>
-      <c r="B52" s="188"/>
+      <c r="A52" s="205"/>
+      <c r="B52" s="206"/>
       <c r="C52" s="37" t="s">
         <v>152</v>
       </c>
@@ -13615,11 +13656,13 @@
       <c r="A53" s="38">
         <v>11</v>
       </c>
-      <c r="B53" s="210" t="s">
+      <c r="B53" s="193" t="s">
         <v>277</v>
       </c>
-      <c r="C53" s="211"/>
-      <c r="D53" s="32"/>
+      <c r="C53" s="194"/>
+      <c r="D53" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E53" s="21"/>
       <c r="F53" s="32"/>
       <c r="G53" s="34"/>
@@ -13628,11 +13671,13 @@
       <c r="A54" s="38">
         <v>12</v>
       </c>
-      <c r="B54" s="210" t="s">
+      <c r="B54" s="193" t="s">
         <v>278</v>
       </c>
-      <c r="C54" s="211"/>
-      <c r="D54" s="32"/>
+      <c r="C54" s="194"/>
+      <c r="D54" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E54" s="21"/>
       <c r="F54" s="32"/>
       <c r="G54" s="34"/>
@@ -13642,26 +13687,28 @@
       <c r="A55" s="38">
         <v>13</v>
       </c>
-      <c r="B55" s="210" t="s">
+      <c r="B55" s="193" t="s">
         <v>279</v>
       </c>
-      <c r="C55" s="211"/>
-      <c r="D55" s="32"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E55" s="21"/>
       <c r="F55" s="32"/>
       <c r="G55" s="34"/>
       <c r="H55" s="40"/>
     </row>
     <row r="56" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="201" t="s">
+      <c r="A56" s="198" t="s">
         <v>187</v>
       </c>
-      <c r="B56" s="202"/>
-      <c r="C56" s="202"/>
-      <c r="D56" s="202"/>
-      <c r="E56" s="202"/>
-      <c r="F56" s="202"/>
-      <c r="G56" s="203"/>
+      <c r="B56" s="199"/>
+      <c r="C56" s="199"/>
+      <c r="D56" s="199"/>
+      <c r="E56" s="199"/>
+      <c r="F56" s="199"/>
+      <c r="G56" s="200"/>
       <c r="H56" s="40"/>
       <c r="I56" s="40"/>
       <c r="J56" s="40"/>
@@ -13674,11 +13721,13 @@
       <c r="A57" s="38">
         <v>14</v>
       </c>
-      <c r="B57" s="215" t="s">
+      <c r="B57" s="201" t="s">
         <v>188</v>
       </c>
-      <c r="C57" s="216"/>
-      <c r="D57" s="32"/>
+      <c r="C57" s="202"/>
+      <c r="D57" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E57" s="35"/>
       <c r="F57" s="35"/>
       <c r="G57" s="34"/>
@@ -13694,11 +13743,13 @@
       <c r="A58" s="38">
         <v>15</v>
       </c>
-      <c r="B58" s="210" t="s">
+      <c r="B58" s="193" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="211"/>
-      <c r="D58" s="32"/>
+      <c r="C58" s="194"/>
+      <c r="D58" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E58" s="33"/>
       <c r="F58" s="34"/>
       <c r="G58" s="34"/>
@@ -13714,11 +13765,13 @@
       <c r="A59" s="38">
         <v>16</v>
       </c>
-      <c r="B59" s="210" t="s">
+      <c r="B59" s="193" t="s">
         <v>189</v>
       </c>
-      <c r="C59" s="211"/>
-      <c r="D59" s="32"/>
+      <c r="C59" s="194"/>
+      <c r="D59" s="32" t="s">
+        <v>470</v>
+      </c>
       <c r="E59" s="33"/>
       <c r="F59" s="34"/>
       <c r="G59" s="34"/>
@@ -13734,11 +13787,13 @@
       <c r="A60" s="38">
         <v>17</v>
       </c>
-      <c r="B60" s="210" t="s">
+      <c r="B60" s="193" t="s">
         <v>447</v>
       </c>
-      <c r="C60" s="211"/>
-      <c r="D60" s="32"/>
+      <c r="C60" s="194"/>
+      <c r="D60" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E60" s="33"/>
       <c r="F60" s="34"/>
       <c r="G60" s="34"/>
@@ -13754,11 +13809,13 @@
       <c r="A61" s="38">
         <v>18</v>
       </c>
-      <c r="B61" s="210" t="s">
+      <c r="B61" s="193" t="s">
         <v>413</v>
       </c>
-      <c r="C61" s="211"/>
-      <c r="D61" s="32"/>
+      <c r="C61" s="194"/>
+      <c r="D61" s="166" t="s">
+        <v>470</v>
+      </c>
       <c r="E61" s="33"/>
       <c r="F61" s="34"/>
       <c r="G61" s="34"/>
@@ -13774,11 +13831,13 @@
       <c r="A62" s="38">
         <v>19</v>
       </c>
-      <c r="B62" s="210" t="s">
+      <c r="B62" s="193" t="s">
         <v>446</v>
       </c>
-      <c r="C62" s="211"/>
-      <c r="D62" s="32"/>
+      <c r="C62" s="194"/>
+      <c r="D62" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E62" s="33"/>
       <c r="F62" s="34"/>
       <c r="G62" s="34"/>
@@ -13791,10 +13850,10 @@
       <c r="N62" s="40"/>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A63" s="204">
+      <c r="A63" s="190">
         <v>20</v>
       </c>
-      <c r="B63" s="212" t="s">
+      <c r="B63" s="216" t="s">
         <v>117</v>
       </c>
       <c r="C63" s="118"/>
@@ -13811,12 +13870,14 @@
       <c r="N63" s="40"/>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="205"/>
-      <c r="B64" s="212"/>
+      <c r="A64" s="191"/>
+      <c r="B64" s="216"/>
       <c r="C64" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="D64" s="34"/>
+      <c r="D64" s="34" t="s">
+        <v>468</v>
+      </c>
       <c r="E64" s="33"/>
       <c r="F64" s="34"/>
       <c r="G64" s="34"/>
@@ -13829,8 +13890,8 @@
       <c r="N64" s="40"/>
     </row>
     <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="205"/>
-      <c r="B65" s="212"/>
+      <c r="A65" s="191"/>
+      <c r="B65" s="216"/>
       <c r="C65" s="24" t="s">
         <v>119</v>
       </c>
@@ -13847,8 +13908,8 @@
       <c r="N65" s="40"/>
     </row>
     <row r="66" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A66" s="205"/>
-      <c r="B66" s="212"/>
+      <c r="A66" s="191"/>
+      <c r="B66" s="216"/>
       <c r="C66" s="24" t="s">
         <v>120</v>
       </c>
@@ -13865,8 +13926,8 @@
       <c r="N66" s="40"/>
     </row>
     <row r="67" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A67" s="205"/>
-      <c r="B67" s="212"/>
+      <c r="A67" s="191"/>
+      <c r="B67" s="216"/>
       <c r="C67" s="24" t="s">
         <v>121</v>
       </c>
@@ -13883,8 +13944,8 @@
       <c r="N67" s="40"/>
     </row>
     <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="205"/>
-      <c r="B68" s="212"/>
+      <c r="A68" s="191"/>
+      <c r="B68" s="216"/>
       <c r="C68" s="24" t="s">
         <v>122</v>
       </c>
@@ -13901,8 +13962,8 @@
       <c r="N68" s="40"/>
     </row>
     <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="205"/>
-      <c r="B69" s="212"/>
+      <c r="A69" s="191"/>
+      <c r="B69" s="216"/>
       <c r="C69" s="24" t="s">
         <v>123</v>
       </c>
@@ -13919,8 +13980,8 @@
       <c r="N69" s="40"/>
     </row>
     <row r="70" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="205"/>
-      <c r="B70" s="212"/>
+      <c r="A70" s="191"/>
+      <c r="B70" s="216"/>
       <c r="C70" s="24" t="s">
         <v>124</v>
       </c>
@@ -13937,8 +13998,8 @@
       <c r="N70" s="40"/>
     </row>
     <row r="71" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A71" s="205"/>
-      <c r="B71" s="212"/>
+      <c r="A71" s="191"/>
+      <c r="B71" s="216"/>
       <c r="C71" s="24" t="s">
         <v>336</v>
       </c>
@@ -13955,8 +14016,8 @@
       <c r="N71" s="40"/>
     </row>
     <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A72" s="205"/>
-      <c r="B72" s="212"/>
+      <c r="A72" s="191"/>
+      <c r="B72" s="216"/>
       <c r="C72" s="24" t="s">
         <v>125</v>
       </c>
@@ -13973,8 +14034,8 @@
       <c r="N72" s="40"/>
     </row>
     <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A73" s="205"/>
-      <c r="B73" s="212"/>
+      <c r="A73" s="191"/>
+      <c r="B73" s="216"/>
       <c r="C73" s="24" t="s">
         <v>126</v>
       </c>
@@ -13991,8 +14052,8 @@
       <c r="N73" s="40"/>
     </row>
     <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A74" s="205"/>
-      <c r="B74" s="212"/>
+      <c r="A74" s="191"/>
+      <c r="B74" s="216"/>
       <c r="C74" s="24" t="s">
         <v>127</v>
       </c>
@@ -14009,8 +14070,8 @@
       <c r="N74" s="40"/>
     </row>
     <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="205"/>
-      <c r="B75" s="212"/>
+      <c r="A75" s="191"/>
+      <c r="B75" s="216"/>
       <c r="C75" s="24" t="s">
         <v>128</v>
       </c>
@@ -14027,8 +14088,8 @@
       <c r="N75" s="40"/>
     </row>
     <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="205"/>
-      <c r="B76" s="212"/>
+      <c r="A76" s="191"/>
+      <c r="B76" s="216"/>
       <c r="C76" s="24" t="s">
         <v>129</v>
       </c>
@@ -14045,8 +14106,8 @@
       <c r="N76" s="40"/>
     </row>
     <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A77" s="205"/>
-      <c r="B77" s="212"/>
+      <c r="A77" s="191"/>
+      <c r="B77" s="216"/>
       <c r="C77" s="24" t="s">
         <v>130</v>
       </c>
@@ -14063,8 +14124,8 @@
       <c r="N77" s="40"/>
     </row>
     <row r="78" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A78" s="205"/>
-      <c r="B78" s="212"/>
+      <c r="A78" s="191"/>
+      <c r="B78" s="216"/>
       <c r="C78" s="24" t="s">
         <v>131</v>
       </c>
@@ -14081,8 +14142,8 @@
       <c r="N78" s="40"/>
     </row>
     <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="205"/>
-      <c r="B79" s="212"/>
+      <c r="A79" s="191"/>
+      <c r="B79" s="216"/>
       <c r="C79" s="24" t="s">
         <v>132</v>
       </c>
@@ -14099,8 +14160,8 @@
       <c r="N79" s="40"/>
     </row>
     <row r="80" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A80" s="205"/>
-      <c r="B80" s="212"/>
+      <c r="A80" s="191"/>
+      <c r="B80" s="216"/>
       <c r="C80" s="24" t="s">
         <v>133</v>
       </c>
@@ -14117,8 +14178,8 @@
       <c r="N80" s="40"/>
     </row>
     <row r="81" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A81" s="205"/>
-      <c r="B81" s="212"/>
+      <c r="A81" s="191"/>
+      <c r="B81" s="216"/>
       <c r="C81" s="24" t="s">
         <v>134</v>
       </c>
@@ -14135,8 +14196,8 @@
       <c r="N81" s="40"/>
     </row>
     <row r="82" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A82" s="205"/>
-      <c r="B82" s="212"/>
+      <c r="A82" s="191"/>
+      <c r="B82" s="216"/>
       <c r="C82" s="24" t="s">
         <v>135</v>
       </c>
@@ -14153,8 +14214,8 @@
       <c r="N82" s="40"/>
     </row>
     <row r="83" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A83" s="205"/>
-      <c r="B83" s="212"/>
+      <c r="A83" s="191"/>
+      <c r="B83" s="216"/>
       <c r="C83" s="24" t="s">
         <v>136</v>
       </c>
@@ -14171,8 +14232,8 @@
       <c r="N83" s="40"/>
     </row>
     <row r="84" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="206"/>
-      <c r="B84" s="212"/>
+      <c r="A84" s="192"/>
+      <c r="B84" s="216"/>
       <c r="C84" s="24" t="s">
         <v>371</v>
       </c>
@@ -14189,10 +14250,10 @@
       <c r="N84" s="40"/>
     </row>
     <row r="85" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="204">
+      <c r="A85" s="190">
         <v>21</v>
       </c>
-      <c r="B85" s="218" t="s">
+      <c r="B85" s="195" t="s">
         <v>137</v>
       </c>
       <c r="C85" s="24"/>
@@ -14209,8 +14270,8 @@
       <c r="N85" s="40"/>
     </row>
     <row r="86" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="205"/>
-      <c r="B86" s="219"/>
+      <c r="A86" s="191"/>
+      <c r="B86" s="196"/>
       <c r="C86" s="30" t="s">
         <v>372</v>
       </c>
@@ -14227,8 +14288,8 @@
       <c r="N86" s="40"/>
     </row>
     <row r="87" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A87" s="205"/>
-      <c r="B87" s="219"/>
+      <c r="A87" s="191"/>
+      <c r="B87" s="196"/>
       <c r="C87" s="30" t="s">
         <v>373</v>
       </c>
@@ -14239,8 +14300,8 @@
       <c r="H87" s="40"/>
     </row>
     <row r="88" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A88" s="205"/>
-      <c r="B88" s="219"/>
+      <c r="A88" s="191"/>
+      <c r="B88" s="196"/>
       <c r="C88" s="30" t="s">
         <v>374</v>
       </c>
@@ -14251,20 +14312,22 @@
       <c r="H88" s="40"/>
     </row>
     <row r="89" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A89" s="205"/>
-      <c r="B89" s="219"/>
+      <c r="A89" s="191"/>
+      <c r="B89" s="196"/>
       <c r="C89" s="30" t="s">
         <v>138</v>
       </c>
-      <c r="D89" s="32"/>
+      <c r="D89" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E89" s="33"/>
       <c r="F89" s="34"/>
       <c r="G89" s="34"/>
       <c r="H89" s="40"/>
     </row>
     <row r="90" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A90" s="205"/>
-      <c r="B90" s="219"/>
+      <c r="A90" s="191"/>
+      <c r="B90" s="196"/>
       <c r="C90" s="30" t="s">
         <v>375</v>
       </c>
@@ -14275,8 +14338,8 @@
       <c r="H90" s="40"/>
     </row>
     <row r="91" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A91" s="205"/>
-      <c r="B91" s="219"/>
+      <c r="A91" s="191"/>
+      <c r="B91" s="196"/>
       <c r="C91" s="30" t="s">
         <v>376</v>
       </c>
@@ -14287,8 +14350,8 @@
       <c r="H91" s="40"/>
     </row>
     <row r="92" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A92" s="205"/>
-      <c r="B92" s="219"/>
+      <c r="A92" s="191"/>
+      <c r="B92" s="196"/>
       <c r="C92" s="30" t="s">
         <v>139</v>
       </c>
@@ -14299,20 +14362,22 @@
       <c r="H92" s="40"/>
     </row>
     <row r="93" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A93" s="205"/>
-      <c r="B93" s="219"/>
+      <c r="A93" s="191"/>
+      <c r="B93" s="196"/>
       <c r="C93" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="D93" s="32"/>
+      <c r="D93" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E93" s="33"/>
       <c r="F93" s="34"/>
       <c r="G93" s="34"/>
       <c r="H93" s="40"/>
     </row>
     <row r="94" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A94" s="205"/>
-      <c r="B94" s="219"/>
+      <c r="A94" s="191"/>
+      <c r="B94" s="196"/>
       <c r="C94" s="30" t="s">
         <v>141</v>
       </c>
@@ -14323,8 +14388,8 @@
       <c r="H94" s="40"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A95" s="205"/>
-      <c r="B95" s="219"/>
+      <c r="A95" s="191"/>
+      <c r="B95" s="196"/>
       <c r="C95" s="30" t="s">
         <v>142</v>
       </c>
@@ -14335,8 +14400,8 @@
       <c r="H95" s="40"/>
     </row>
     <row r="96" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="206"/>
-      <c r="B96" s="220"/>
+      <c r="A96" s="192"/>
+      <c r="B96" s="197"/>
       <c r="C96" s="30" t="s">
         <v>371</v>
       </c>
@@ -14347,22 +14412,22 @@
       <c r="H96" s="40"/>
     </row>
     <row r="97" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="201" t="s">
+      <c r="A97" s="198" t="s">
         <v>367</v>
       </c>
-      <c r="B97" s="202"/>
-      <c r="C97" s="202"/>
-      <c r="D97" s="202"/>
-      <c r="E97" s="202"/>
-      <c r="F97" s="202"/>
-      <c r="G97" s="203"/>
+      <c r="B97" s="199"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="199"/>
+      <c r="E97" s="199"/>
+      <c r="F97" s="199"/>
+      <c r="G97" s="200"/>
       <c r="H97" s="40"/>
     </row>
     <row r="98" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="213">
+      <c r="A98" s="207">
         <v>22</v>
       </c>
-      <c r="B98" s="214" t="s">
+      <c r="B98" s="217" t="s">
         <v>154</v>
       </c>
       <c r="C98" s="24" t="s">
@@ -14375,8 +14440,8 @@
       <c r="H98" s="40"/>
     </row>
     <row r="99" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="213"/>
-      <c r="B99" s="214"/>
+      <c r="A99" s="207"/>
+      <c r="B99" s="217"/>
       <c r="C99" s="24" t="s">
         <v>156</v>
       </c>
@@ -14387,22 +14452,24 @@
       <c r="H99" s="40"/>
     </row>
     <row r="100" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A100" s="213"/>
-      <c r="B100" s="214"/>
+      <c r="A100" s="207"/>
+      <c r="B100" s="217"/>
       <c r="C100" s="24" t="s">
         <v>157</v>
       </c>
-      <c r="D100" s="32"/>
+      <c r="D100" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E100" s="33"/>
       <c r="F100" s="34"/>
       <c r="G100" s="34"/>
       <c r="H100" s="40"/>
     </row>
     <row r="101" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="196">
+      <c r="A101" s="213">
         <v>23</v>
       </c>
-      <c r="B101" s="207" t="s">
+      <c r="B101" s="210" t="s">
         <v>158</v>
       </c>
       <c r="C101" s="24"/>
@@ -14413,8 +14480,8 @@
       <c r="H101" s="40"/>
     </row>
     <row r="102" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="197"/>
-      <c r="B102" s="208"/>
+      <c r="A102" s="214"/>
+      <c r="B102" s="211"/>
       <c r="C102" s="30" t="s">
         <v>159</v>
       </c>
@@ -14425,169 +14492,187 @@
       <c r="H102" s="40"/>
     </row>
     <row r="103" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A103" s="198"/>
-      <c r="B103" s="209"/>
+      <c r="A103" s="215"/>
+      <c r="B103" s="212"/>
       <c r="C103" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="D103" s="32"/>
+      <c r="D103" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E103" s="33"/>
       <c r="F103" s="34"/>
       <c r="G103" s="34"/>
       <c r="H103" s="40"/>
     </row>
     <row r="104" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="201" t="s">
+      <c r="A104" s="198" t="s">
         <v>169</v>
       </c>
-      <c r="B104" s="202"/>
-      <c r="C104" s="202"/>
-      <c r="D104" s="202"/>
-      <c r="E104" s="202"/>
-      <c r="F104" s="202"/>
-      <c r="G104" s="203"/>
+      <c r="B104" s="199"/>
+      <c r="C104" s="199"/>
+      <c r="D104" s="199"/>
+      <c r="E104" s="199"/>
+      <c r="F104" s="199"/>
+      <c r="G104" s="200"/>
       <c r="H104" s="40"/>
     </row>
     <row r="105" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="38">
         <v>24</v>
       </c>
-      <c r="B105" s="210" t="s">
+      <c r="B105" s="193" t="s">
         <v>284</v>
       </c>
-      <c r="C105" s="211"/>
-      <c r="D105" s="32"/>
+      <c r="C105" s="194"/>
+      <c r="D105" s="32" t="s">
+        <v>470</v>
+      </c>
       <c r="E105" s="32"/>
       <c r="F105" s="32"/>
       <c r="G105" s="34"/>
       <c r="H105" s="40"/>
     </row>
     <row r="106" spans="1:8" s="46" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="201" t="s">
+      <c r="A106" s="198" t="s">
         <v>285</v>
       </c>
-      <c r="B106" s="202"/>
-      <c r="C106" s="202"/>
-      <c r="D106" s="202"/>
-      <c r="E106" s="202"/>
-      <c r="F106" s="202"/>
-      <c r="G106" s="203"/>
+      <c r="B106" s="199"/>
+      <c r="C106" s="199"/>
+      <c r="D106" s="199"/>
+      <c r="E106" s="199"/>
+      <c r="F106" s="199"/>
+      <c r="G106" s="200"/>
       <c r="H106" s="45"/>
     </row>
     <row r="107" spans="1:8" s="46" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="42">
         <v>25</v>
       </c>
-      <c r="B107" s="210" t="s">
+      <c r="B107" s="193" t="s">
         <v>448</v>
       </c>
-      <c r="C107" s="211"/>
-      <c r="D107" s="43"/>
+      <c r="C107" s="194"/>
+      <c r="D107" s="43" t="s">
+        <v>470</v>
+      </c>
       <c r="E107" s="44"/>
       <c r="F107" s="43"/>
       <c r="G107" s="100"/>
       <c r="H107" s="45"/>
     </row>
     <row r="108" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="201" t="s">
+      <c r="A108" s="198" t="s">
         <v>191</v>
       </c>
-      <c r="B108" s="202"/>
-      <c r="C108" s="202"/>
-      <c r="D108" s="202"/>
-      <c r="E108" s="202"/>
-      <c r="F108" s="202"/>
-      <c r="G108" s="203"/>
+      <c r="B108" s="199"/>
+      <c r="C108" s="199"/>
+      <c r="D108" s="199"/>
+      <c r="E108" s="199"/>
+      <c r="F108" s="199"/>
+      <c r="G108" s="200"/>
       <c r="H108" s="40"/>
     </row>
     <row r="109" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="38">
         <v>26</v>
       </c>
-      <c r="B109" s="210" t="s">
+      <c r="B109" s="193" t="s">
         <v>287</v>
       </c>
-      <c r="C109" s="211"/>
-      <c r="D109" s="32"/>
+      <c r="C109" s="194"/>
+      <c r="D109" s="166" t="s">
+        <v>468</v>
+      </c>
       <c r="E109" s="32"/>
       <c r="F109" s="32"/>
       <c r="G109" s="34"/>
       <c r="H109" s="40"/>
     </row>
     <row r="110" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="201" t="s">
+      <c r="A110" s="198" t="s">
         <v>288</v>
       </c>
-      <c r="B110" s="202"/>
-      <c r="C110" s="202"/>
-      <c r="D110" s="202"/>
-      <c r="E110" s="202"/>
-      <c r="F110" s="202"/>
-      <c r="G110" s="203"/>
+      <c r="B110" s="199"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="199"/>
+      <c r="E110" s="199"/>
+      <c r="F110" s="199"/>
+      <c r="G110" s="200"/>
       <c r="H110" s="40"/>
     </row>
     <row r="111" spans="1:8" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="38">
         <v>27</v>
       </c>
-      <c r="B111" s="210" t="s">
+      <c r="B111" s="193" t="s">
         <v>289</v>
       </c>
-      <c r="C111" s="211"/>
-      <c r="D111" s="32"/>
-      <c r="E111" s="32"/>
+      <c r="C111" s="194"/>
+      <c r="D111" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="E111" s="32" t="s">
+        <v>471</v>
+      </c>
       <c r="F111" s="32"/>
       <c r="G111" s="34"/>
       <c r="H111" s="40"/>
     </row>
     <row r="112" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="201" t="s">
+      <c r="A112" s="198" t="s">
         <v>366</v>
       </c>
-      <c r="B112" s="202"/>
-      <c r="C112" s="202"/>
-      <c r="D112" s="202"/>
-      <c r="E112" s="202"/>
-      <c r="F112" s="202"/>
-      <c r="G112" s="203"/>
+      <c r="B112" s="199"/>
+      <c r="C112" s="199"/>
+      <c r="D112" s="199"/>
+      <c r="E112" s="199"/>
+      <c r="F112" s="199"/>
+      <c r="G112" s="200"/>
       <c r="H112" s="40"/>
     </row>
     <row r="113" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="42">
         <v>28</v>
       </c>
-      <c r="B113" s="210" t="s">
+      <c r="B113" s="193" t="s">
         <v>292</v>
       </c>
-      <c r="C113" s="211"/>
-      <c r="D113" s="32"/>
+      <c r="C113" s="194"/>
+      <c r="D113" s="32" t="s">
+        <v>468</v>
+      </c>
       <c r="E113" s="21"/>
       <c r="F113" s="32"/>
       <c r="G113" s="34"/>
       <c r="H113" s="40"/>
     </row>
     <row r="114" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="201" t="s">
+      <c r="A114" s="198" t="s">
         <v>203</v>
       </c>
-      <c r="B114" s="202"/>
-      <c r="C114" s="202"/>
-      <c r="D114" s="202"/>
-      <c r="E114" s="202"/>
-      <c r="F114" s="202"/>
-      <c r="G114" s="203"/>
+      <c r="B114" s="199"/>
+      <c r="C114" s="199"/>
+      <c r="D114" s="199"/>
+      <c r="E114" s="199"/>
+      <c r="F114" s="199"/>
+      <c r="G114" s="200"/>
       <c r="H114" s="40"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="38">
         <v>29</v>
       </c>
-      <c r="B115" s="210" t="s">
+      <c r="B115" s="193" t="s">
         <v>293</v>
       </c>
-      <c r="C115" s="211"/>
-      <c r="D115" s="32"/>
-      <c r="E115" s="32"/>
+      <c r="C115" s="194"/>
+      <c r="D115" s="166" t="s">
+        <v>472</v>
+      </c>
+      <c r="E115" s="32" t="s">
+        <v>467</v>
+      </c>
       <c r="F115" s="32"/>
       <c r="G115" s="34"/>
       <c r="H115" s="40"/>
@@ -14596,36 +14681,40 @@
       <c r="A116" s="38">
         <v>30</v>
       </c>
-      <c r="B116" s="210" t="s">
+      <c r="B116" s="193" t="s">
         <v>294</v>
       </c>
-      <c r="C116" s="211"/>
-      <c r="D116" s="43"/>
+      <c r="C116" s="194"/>
+      <c r="D116" s="43" t="s">
+        <v>468</v>
+      </c>
       <c r="E116" s="32"/>
       <c r="F116" s="32"/>
       <c r="G116" s="34"/>
       <c r="H116" s="40"/>
     </row>
     <row r="117" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="201" t="s">
+      <c r="A117" s="198" t="s">
         <v>411</v>
       </c>
-      <c r="B117" s="202"/>
-      <c r="C117" s="202"/>
-      <c r="D117" s="202"/>
-      <c r="E117" s="202"/>
-      <c r="F117" s="202"/>
-      <c r="G117" s="203"/>
+      <c r="B117" s="199"/>
+      <c r="C117" s="199"/>
+      <c r="D117" s="199"/>
+      <c r="E117" s="199"/>
+      <c r="F117" s="199"/>
+      <c r="G117" s="200"/>
     </row>
     <row r="118" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="115">
         <v>31</v>
       </c>
-      <c r="B118" s="199" t="s">
+      <c r="B118" s="208" t="s">
         <v>414</v>
       </c>
-      <c r="C118" s="200"/>
-      <c r="D118" s="43"/>
+      <c r="C118" s="209"/>
+      <c r="D118" s="167" t="s">
+        <v>468</v>
+      </c>
       <c r="E118" s="44"/>
       <c r="F118" s="32"/>
       <c r="G118" s="34"/>
@@ -14640,18 +14729,35 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="57">
-    <mergeCell ref="A85:A96"/>
-    <mergeCell ref="B116:C116"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B85:B96"/>
-    <mergeCell ref="A110:G110"/>
-    <mergeCell ref="A108:G108"/>
-    <mergeCell ref="A106:G106"/>
-    <mergeCell ref="B113:C113"/>
-    <mergeCell ref="B115:C115"/>
+    <mergeCell ref="A17:A20"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="A28:A36"/>
+    <mergeCell ref="B28:B36"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B118:C118"/>
+    <mergeCell ref="A114:G114"/>
+    <mergeCell ref="A63:A84"/>
+    <mergeCell ref="B101:B103"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="B107:C107"/>
+    <mergeCell ref="A104:G104"/>
+    <mergeCell ref="A97:G97"/>
+    <mergeCell ref="B63:B84"/>
+    <mergeCell ref="A98:A100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B109:C109"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="A112:G112"/>
+    <mergeCell ref="A117:G117"/>
     <mergeCell ref="B55:C55"/>
     <mergeCell ref="B57:C57"/>
     <mergeCell ref="B58:C58"/>
@@ -14668,41 +14774,24 @@
     <mergeCell ref="B43:B52"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:G42"/>
-    <mergeCell ref="B118:C118"/>
-    <mergeCell ref="A114:G114"/>
-    <mergeCell ref="A63:A84"/>
-    <mergeCell ref="B101:B103"/>
-    <mergeCell ref="A101:A103"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="B107:C107"/>
-    <mergeCell ref="A104:G104"/>
-    <mergeCell ref="A97:G97"/>
-    <mergeCell ref="B63:B84"/>
-    <mergeCell ref="A98:A100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B109:C109"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="A112:G112"/>
-    <mergeCell ref="A117:G117"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:B7"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A17:A20"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="A28:A36"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="A85:A96"/>
+    <mergeCell ref="B116:C116"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B85:B96"/>
+    <mergeCell ref="A110:G110"/>
+    <mergeCell ref="A108:G108"/>
+    <mergeCell ref="A106:G106"/>
+    <mergeCell ref="B113:C113"/>
+    <mergeCell ref="B115:C115"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D111 D116 D86:D96 D105 D107 D109 D118 D113 D39:D41 D53:D55 D57:D62 D64:D84 D98:D100 D102:D103">
       <formula1>"Yes, No, NA"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D24:D25 D20 D16 D6:D7 D9:D14 D18 D22 D28:D30 D32:D37">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D28:D37 D22:D25 D18:D20 D5:D7 D9:D16">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -14733,22 +14822,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="218" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="193"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="220"/>
     </row>
     <row r="2" spans="1:7" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="221" t="s">
+      <c r="A2" s="224" t="s">
         <v>162</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="223"/>
+      <c r="B2" s="225"/>
+      <c r="C2" s="225"/>
+      <c r="D2" s="225"/>
+      <c r="E2" s="226"/>
       <c r="F2" s="41"/>
     </row>
     <row r="3" spans="1:7" s="40" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -14936,8 +15025,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -14951,23 +15040,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="218" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="192"/>
-      <c r="C1" s="192"/>
-      <c r="D1" s="192"/>
-      <c r="E1" s="192"/>
-      <c r="F1" s="192"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
     </row>
     <row r="2" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="78" t="s">
         <v>163</v>
       </c>
-      <c r="B2" s="230" t="s">
+      <c r="B2" s="240" t="s">
         <v>164</v>
       </c>
-      <c r="C2" s="231"/>
+      <c r="C2" s="241"/>
       <c r="D2" s="78" t="s">
         <v>181</v>
       </c>
@@ -14979,45 +15068,45 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="234" t="s">
+      <c r="A3" s="229" t="s">
         <v>169</v>
       </c>
-      <c r="B3" s="235"/>
-      <c r="C3" s="235"/>
-      <c r="D3" s="235"/>
-      <c r="E3" s="235"/>
-      <c r="F3" s="236"/>
+      <c r="B3" s="230"/>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="231"/>
     </row>
     <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="38">
         <v>1</v>
       </c>
-      <c r="B4" s="224" t="s">
+      <c r="B4" s="227" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="225"/>
+      <c r="C4" s="228"/>
       <c r="D4" s="17"/>
       <c r="E4" s="32"/>
       <c r="F4" s="34"/>
     </row>
     <row r="5" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="237" t="s">
+      <c r="A5" s="232" t="s">
         <v>171</v>
       </c>
-      <c r="B5" s="238"/>
-      <c r="C5" s="238"/>
-      <c r="D5" s="238"/>
-      <c r="E5" s="238"/>
-      <c r="F5" s="239"/>
+      <c r="B5" s="233"/>
+      <c r="C5" s="233"/>
+      <c r="D5" s="233"/>
+      <c r="E5" s="233"/>
+      <c r="F5" s="234"/>
     </row>
     <row r="6" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38">
         <v>1</v>
       </c>
-      <c r="B6" s="224" t="s">
+      <c r="B6" s="227" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="225"/>
+      <c r="C6" s="228"/>
       <c r="D6" s="17"/>
       <c r="E6" s="32"/>
       <c r="F6" s="34"/>
@@ -15026,32 +15115,32 @@
       <c r="A7" s="47">
         <v>2</v>
       </c>
-      <c r="B7" s="224" t="s">
+      <c r="B7" s="227" t="s">
         <v>286</v>
       </c>
-      <c r="C7" s="225"/>
+      <c r="C7" s="228"/>
       <c r="D7" s="17"/>
       <c r="E7" s="32"/>
       <c r="F7" s="34"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="237" t="s">
+      <c r="A8" s="232" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="238"/>
-      <c r="C8" s="238"/>
-      <c r="D8" s="238"/>
-      <c r="E8" s="238"/>
-      <c r="F8" s="239"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="233"/>
+      <c r="D8" s="233"/>
+      <c r="E8" s="233"/>
+      <c r="F8" s="234"/>
     </row>
     <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="79">
         <v>1</v>
       </c>
-      <c r="B9" s="232" t="s">
+      <c r="B9" s="242" t="s">
         <v>451</v>
       </c>
-      <c r="C9" s="233"/>
+      <c r="C9" s="243"/>
       <c r="D9" s="17"/>
       <c r="E9" s="32"/>
       <c r="F9" s="34"/>
@@ -15060,29 +15149,29 @@
       <c r="A10" s="38">
         <v>2</v>
       </c>
-      <c r="B10" s="243" t="s">
+      <c r="B10" s="238" t="s">
         <v>452</v>
       </c>
-      <c r="C10" s="244"/>
+      <c r="C10" s="239"/>
       <c r="D10" s="17"/>
       <c r="E10" s="32"/>
       <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="237" t="s">
+      <c r="A11" s="232" t="s">
         <v>196</v>
       </c>
-      <c r="B11" s="238"/>
-      <c r="C11" s="238"/>
-      <c r="D11" s="238"/>
-      <c r="E11" s="238"/>
-      <c r="F11" s="239"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="233"/>
+      <c r="D11" s="233"/>
+      <c r="E11" s="233"/>
+      <c r="F11" s="234"/>
     </row>
     <row r="12" spans="1:6" ht="120" x14ac:dyDescent="0.2">
-      <c r="A12" s="226">
+      <c r="A12" s="244">
         <v>1</v>
       </c>
-      <c r="B12" s="227" t="s">
+      <c r="B12" s="245" t="s">
         <v>153</v>
       </c>
       <c r="C12" s="120" t="s">
@@ -15093,8 +15182,8 @@
       <c r="F12" s="34"/>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="226"/>
-      <c r="B13" s="227"/>
+      <c r="A13" s="244"/>
+      <c r="B13" s="245"/>
       <c r="C13" s="121" t="s">
         <v>418</v>
       </c>
@@ -15103,8 +15192,8 @@
       <c r="F13" s="34"/>
     </row>
     <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="226"/>
-      <c r="B14" s="227"/>
+      <c r="A14" s="244"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="122" t="s">
         <v>419</v>
       </c>
@@ -15113,8 +15202,8 @@
       <c r="F14" s="34"/>
     </row>
     <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="226"/>
-      <c r="B15" s="227"/>
+      <c r="A15" s="244"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="122" t="s">
         <v>420</v>
       </c>
@@ -15123,8 +15212,8 @@
       <c r="F15" s="34"/>
     </row>
     <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A16" s="226"/>
-      <c r="B16" s="227"/>
+      <c r="A16" s="244"/>
+      <c r="B16" s="245"/>
       <c r="C16" s="122" t="s">
         <v>421</v>
       </c>
@@ -15133,8 +15222,8 @@
       <c r="F16" s="34"/>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="226"/>
-      <c r="B17" s="227"/>
+      <c r="A17" s="244"/>
+      <c r="B17" s="245"/>
       <c r="C17" s="122" t="s">
         <v>422</v>
       </c>
@@ -15143,8 +15232,8 @@
       <c r="F17" s="34"/>
     </row>
     <row r="18" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="226"/>
-      <c r="B18" s="227"/>
+      <c r="A18" s="244"/>
+      <c r="B18" s="245"/>
       <c r="C18" s="122" t="s">
         <v>423</v>
       </c>
@@ -15153,8 +15242,8 @@
       <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="226"/>
-      <c r="B19" s="227"/>
+      <c r="A19" s="244"/>
+      <c r="B19" s="245"/>
       <c r="C19" s="122" t="s">
         <v>424</v>
       </c>
@@ -15163,8 +15252,8 @@
       <c r="F19" s="34"/>
     </row>
     <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A20" s="226"/>
-      <c r="B20" s="227"/>
+      <c r="A20" s="244"/>
+      <c r="B20" s="245"/>
       <c r="C20" s="122" t="s">
         <v>425</v>
       </c>
@@ -15173,8 +15262,8 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="226"/>
-      <c r="B21" s="227"/>
+      <c r="A21" s="244"/>
+      <c r="B21" s="245"/>
       <c r="C21" s="122" t="s">
         <v>426</v>
       </c>
@@ -15183,8 +15272,8 @@
       <c r="F21" s="34"/>
     </row>
     <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A22" s="226"/>
-      <c r="B22" s="227"/>
+      <c r="A22" s="244"/>
+      <c r="B22" s="245"/>
       <c r="C22" s="122" t="s">
         <v>427</v>
       </c>
@@ -15193,8 +15282,8 @@
       <c r="F22" s="34"/>
     </row>
     <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="A23" s="226"/>
-      <c r="B23" s="227"/>
+      <c r="A23" s="244"/>
+      <c r="B23" s="245"/>
       <c r="C23" s="122" t="s">
         <v>428</v>
       </c>
@@ -15206,10 +15295,10 @@
       <c r="A24" s="39">
         <v>2</v>
       </c>
-      <c r="B24" s="224" t="s">
+      <c r="B24" s="227" t="s">
         <v>197</v>
       </c>
-      <c r="C24" s="225"/>
+      <c r="C24" s="228"/>
       <c r="D24" s="17"/>
       <c r="E24" s="32"/>
       <c r="F24" s="34"/>
@@ -15218,10 +15307,10 @@
       <c r="A25" s="38">
         <v>3</v>
       </c>
-      <c r="B25" s="224" t="s">
+      <c r="B25" s="227" t="s">
         <v>198</v>
       </c>
-      <c r="C25" s="225"/>
+      <c r="C25" s="228"/>
       <c r="D25" s="17"/>
       <c r="E25" s="32"/>
       <c r="F25" s="34"/>
@@ -15230,32 +15319,32 @@
       <c r="A26" s="38">
         <v>4</v>
       </c>
-      <c r="B26" s="224" t="s">
+      <c r="B26" s="227" t="s">
         <v>199</v>
       </c>
-      <c r="C26" s="225"/>
+      <c r="C26" s="228"/>
       <c r="D26" s="17"/>
       <c r="E26" s="32"/>
       <c r="F26" s="34"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="240" t="s">
+      <c r="A27" s="235" t="s">
         <v>412</v>
       </c>
-      <c r="B27" s="241"/>
-      <c r="C27" s="241"/>
-      <c r="D27" s="241"/>
-      <c r="E27" s="241"/>
-      <c r="F27" s="242"/>
+      <c r="B27" s="236"/>
+      <c r="C27" s="236"/>
+      <c r="D27" s="236"/>
+      <c r="E27" s="236"/>
+      <c r="F27" s="237"/>
     </row>
     <row r="28" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="38">
         <v>1</v>
       </c>
-      <c r="B28" s="228" t="s">
+      <c r="B28" s="246" t="s">
         <v>204</v>
       </c>
-      <c r="C28" s="229"/>
+      <c r="C28" s="247"/>
       <c r="D28" s="17"/>
       <c r="E28" s="32"/>
       <c r="F28" s="34"/>
@@ -15264,10 +15353,10 @@
       <c r="A29" s="38">
         <v>2</v>
       </c>
-      <c r="B29" s="224" t="s">
+      <c r="B29" s="227" t="s">
         <v>205</v>
       </c>
-      <c r="C29" s="225"/>
+      <c r="C29" s="228"/>
       <c r="D29" s="17"/>
       <c r="E29" s="32"/>
       <c r="F29" s="34"/>
@@ -15276,76 +15365,76 @@
       <c r="A30" s="38">
         <v>3</v>
       </c>
-      <c r="B30" s="224" t="s">
+      <c r="B30" s="227" t="s">
         <v>190</v>
       </c>
-      <c r="C30" s="225"/>
+      <c r="C30" s="228"/>
       <c r="D30" s="17"/>
       <c r="E30" s="32"/>
       <c r="F30" s="34"/>
     </row>
     <row r="31" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="237" t="s">
+      <c r="A31" s="232" t="s">
         <v>200</v>
       </c>
-      <c r="B31" s="238"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="238"/>
-      <c r="E31" s="238"/>
-      <c r="F31" s="239"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="233"/>
+      <c r="D31" s="233"/>
+      <c r="E31" s="233"/>
+      <c r="F31" s="234"/>
     </row>
     <row r="32" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="42">
         <v>1</v>
       </c>
-      <c r="B32" s="224" t="s">
+      <c r="B32" s="227" t="s">
         <v>281</v>
       </c>
-      <c r="C32" s="225"/>
+      <c r="C32" s="228"/>
       <c r="D32" s="17"/>
       <c r="E32" s="32"/>
       <c r="F32" s="34"/>
     </row>
     <row r="33" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="237" t="s">
+      <c r="A33" s="232" t="s">
         <v>202</v>
       </c>
-      <c r="B33" s="238"/>
-      <c r="C33" s="238"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="238"/>
-      <c r="F33" s="239"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="233"/>
+      <c r="D33" s="233"/>
+      <c r="E33" s="233"/>
+      <c r="F33" s="234"/>
     </row>
     <row r="34" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="47">
         <v>1</v>
       </c>
-      <c r="B34" s="224" t="s">
+      <c r="B34" s="227" t="s">
         <v>282</v>
       </c>
-      <c r="C34" s="225"/>
+      <c r="C34" s="228"/>
       <c r="D34" s="81"/>
       <c r="E34" s="32"/>
       <c r="F34" s="34"/>
     </row>
     <row r="35" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="237" t="s">
+      <c r="A35" s="232" t="s">
         <v>283</v>
       </c>
-      <c r="B35" s="238"/>
-      <c r="C35" s="238"/>
-      <c r="D35" s="238"/>
-      <c r="E35" s="238"/>
-      <c r="F35" s="239"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="233"/>
+      <c r="D35" s="233"/>
+      <c r="E35" s="233"/>
+      <c r="F35" s="234"/>
     </row>
     <row r="36" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="47">
         <v>1</v>
       </c>
-      <c r="B36" s="224" t="s">
+      <c r="B36" s="227" t="s">
         <v>182</v>
       </c>
-      <c r="C36" s="225"/>
+      <c r="C36" s="228"/>
       <c r="D36" s="81"/>
       <c r="E36" s="32"/>
       <c r="F36" s="34"/>
@@ -15354,32 +15443,32 @@
       <c r="A37" s="47">
         <v>2</v>
       </c>
-      <c r="B37" s="224" t="s">
+      <c r="B37" s="227" t="s">
         <v>201</v>
       </c>
-      <c r="C37" s="225"/>
+      <c r="C37" s="228"/>
       <c r="D37" s="17"/>
       <c r="E37" s="32"/>
       <c r="F37" s="34"/>
     </row>
     <row r="38" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="237" t="s">
+      <c r="A38" s="232" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="238"/>
-      <c r="C38" s="238"/>
-      <c r="D38" s="238"/>
-      <c r="E38" s="238"/>
-      <c r="F38" s="239"/>
+      <c r="B38" s="233"/>
+      <c r="C38" s="233"/>
+      <c r="D38" s="233"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="234"/>
     </row>
     <row r="39" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="47">
         <v>1</v>
       </c>
-      <c r="B39" s="224" t="s">
+      <c r="B39" s="227" t="s">
         <v>455</v>
       </c>
-      <c r="C39" s="225"/>
+      <c r="C39" s="228"/>
       <c r="D39" s="82"/>
       <c r="E39" s="82"/>
       <c r="F39" s="34"/>
@@ -15388,54 +15477,54 @@
       <c r="A40" s="47">
         <v>2</v>
       </c>
-      <c r="B40" s="224" t="s">
+      <c r="B40" s="227" t="s">
         <v>450</v>
       </c>
-      <c r="C40" s="225"/>
+      <c r="C40" s="228"/>
       <c r="D40" s="82"/>
       <c r="E40" s="82"/>
       <c r="F40" s="82"/>
     </row>
     <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="237" t="s">
+      <c r="A41" s="232" t="s">
         <v>290</v>
       </c>
-      <c r="B41" s="238"/>
-      <c r="C41" s="238"/>
-      <c r="D41" s="238"/>
-      <c r="E41" s="238"/>
-      <c r="F41" s="239"/>
+      <c r="B41" s="233"/>
+      <c r="C41" s="233"/>
+      <c r="D41" s="233"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="234"/>
     </row>
     <row r="42" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="47">
         <v>1</v>
       </c>
-      <c r="B42" s="224" t="s">
+      <c r="B42" s="227" t="s">
         <v>291</v>
       </c>
-      <c r="C42" s="225"/>
+      <c r="C42" s="228"/>
       <c r="D42" s="83"/>
       <c r="E42" s="32"/>
       <c r="F42" s="34"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="237" t="s">
+      <c r="A43" s="232" t="s">
         <v>193</v>
       </c>
-      <c r="B43" s="238"/>
-      <c r="C43" s="238"/>
-      <c r="D43" s="238"/>
-      <c r="E43" s="238"/>
-      <c r="F43" s="239"/>
+      <c r="B43" s="233"/>
+      <c r="C43" s="233"/>
+      <c r="D43" s="233"/>
+      <c r="E43" s="233"/>
+      <c r="F43" s="234"/>
     </row>
     <row r="44" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="47">
         <v>1</v>
       </c>
-      <c r="B44" s="224" t="s">
+      <c r="B44" s="227" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="225"/>
+      <c r="C44" s="228"/>
       <c r="D44" s="17"/>
       <c r="E44" s="83"/>
       <c r="F44" s="34"/>
@@ -15444,10 +15533,10 @@
       <c r="A45" s="47">
         <v>2</v>
       </c>
-      <c r="B45" s="224" t="s">
+      <c r="B45" s="227" t="s">
         <v>195</v>
       </c>
-      <c r="C45" s="225"/>
+      <c r="C45" s="228"/>
       <c r="D45" s="17"/>
       <c r="E45" s="83"/>
       <c r="F45" s="34"/>
@@ -15461,6 +15550,25 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells count="35">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="A12:A23"/>
+    <mergeCell ref="B12:B23"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
@@ -15477,25 +15585,6 @@
     <mergeCell ref="A43:F43"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="A12:A23"/>
-    <mergeCell ref="B12:B23"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D26 D9">
@@ -15530,26 +15619,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="248" t="s">
         <v>401</v>
       </c>
-      <c r="B1" s="246"/>
-      <c r="C1" s="246"/>
-      <c r="D1" s="246"/>
-      <c r="E1" s="246"/>
-      <c r="F1" s="246"/>
-      <c r="G1" s="246"/>
-      <c r="H1" s="246"/>
-      <c r="I1" s="246"/>
-      <c r="J1" s="246"/>
-      <c r="K1" s="246"/>
-      <c r="L1" s="246"/>
-      <c r="M1" s="246"/>
-      <c r="N1" s="246"/>
-      <c r="O1" s="246"/>
-      <c r="P1" s="246"/>
-      <c r="Q1" s="246"/>
-      <c r="R1" s="246"/>
+      <c r="B1" s="249"/>
+      <c r="C1" s="249"/>
+      <c r="D1" s="249"/>
+      <c r="E1" s="249"/>
+      <c r="F1" s="249"/>
+      <c r="G1" s="249"/>
+      <c r="H1" s="249"/>
+      <c r="I1" s="249"/>
+      <c r="J1" s="249"/>
+      <c r="K1" s="249"/>
+      <c r="L1" s="249"/>
+      <c r="M1" s="249"/>
+      <c r="N1" s="249"/>
+      <c r="O1" s="249"/>
+      <c r="P1" s="249"/>
+      <c r="Q1" s="249"/>
+      <c r="R1" s="249"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="107" t="s">
@@ -15707,15 +15796,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010086F496430BF30A4081B35D6A9B291A54" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1b9a0df9407a0b21ccc5e2132d53c54b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="021327f4-449c-4b21-b66e-5e83ce4dab69" xmlns:ns3="cf8ec97c-a53d-4539-8ce9-fc92ea12e600" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="28cfa65081cb0eb84a1078e58dc6b544" ns2:_="" ns3:_="">
     <xsd:import namespace="021327f4-449c-4b21-b66e-5e83ce4dab69"/>
@@ -15951,6 +16031,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -15976,14 +16065,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39310044-7974-4EC0-A34C-118E89B4A12C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1BD9CD5B-CAC6-4C45-A00F-097056224A9A}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -16002,6 +16083,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39310044-7974-4EC0-A34C-118E89B4A12C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562CA5E6-A33D-4D98-89EE-D7D5D51F020B}">
   <ds:schemaRefs>
